--- a/Preliminary results.xlsx
+++ b/Preliminary results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talil\OneDrive\Documents\GitHub\BN-understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D326DF-DFDC-4E8A-975F-70881CC62F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479666B4-3BD8-4368-8BB5-BE8E8B35FEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="777" xr2:uid="{488315C1-4822-4E08-9B4D-50DDCC42159E}"/>
   </bookViews>
@@ -795,6 +795,3666 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chain </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>John M A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-974C-4988-B838-0C02B150F8CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-974C-4988-B838-0C02B150F8CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ross P</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-974C-4988-B838-0C02B150F8CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-974C-4988-B838-0C02B150F8CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Correct Answer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-974C-4988-B838-0C02B150F8CF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>38.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-974C-4988-B838-0C02B150F8CF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="685379888"/>
+        <c:axId val="685381200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="685379888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685381200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685381200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+          <c:min val="35"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685379888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Common Cause </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Marek D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$G$8:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-1210-4787-8440-F2967EAB0379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>John M A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="dash"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$F$8:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-1210-4787-8440-F2967EAB0379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ross P</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$E$8:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1210-4787-8440-F2967EAB0379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Correct Answer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="34925" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-1210-4787-8440-F2967EAB0379}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$D$8:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>23.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.700000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1210-4787-8440-F2967EAB0379}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="685379888"/>
+        <c:axId val="685381200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="685379888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685381200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685381200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685379888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Common Effect </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Marek D</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$G$15:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F026-4173-BA0D-36BFA8C6E39D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>John M A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$F$15:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-F026-4173-BA0D-36BFA8C6E39D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ross P</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$E$15:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-F026-4173-BA0D-36BFA8C6E39D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Correct Answer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Best Estimate'!$D$15:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-F026-4173-BA0D-36BFA8C6E39D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="685379888"/>
+        <c:axId val="685381200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="685379888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685381200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="685381200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="685379888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158610</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23042</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>478021</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137066</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04CDCD4-A7FC-4A41-90F3-2EEB5368F154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>506015</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>217134</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34648</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E66C85E-74BD-453A-8CED-14FA82251863}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144974</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA84C505-CDAA-40D7-97D5-F6E647DDE465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1094,7 +4754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A99441-BE4E-41A4-B2E0-06505D3A168E}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -1554,6 +5214,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Preliminary results.xlsx
+++ b/Preliminary results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talil\OneDrive\Documents\GitHub\BN-understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479666B4-3BD8-4368-8BB5-BE8E8B35FEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E939F-92B6-46FB-8CCF-124969F7AADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="777" xr2:uid="{488315C1-4822-4E08-9B4D-50DDCC42159E}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="Time" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -757,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,7 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5748,17 +5749,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="A3:A7"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:G21">
     <cfRule type="colorScale" priority="7">
@@ -6858,7 +6859,7 @@
       <c r="C3" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="73">
         <v>2.2360000000000002</v>
       </c>
       <c r="F3" s="53" t="s">
@@ -6870,7 +6871,7 @@
       <c r="H3" s="18">
         <v>1.54</v>
       </c>
-      <c r="I3" s="73">
+      <c r="I3" s="76">
         <v>0.93100000000000005</v>
       </c>
       <c r="K3" s="53" t="s">
@@ -6882,7 +6883,7 @@
       <c r="M3" s="18">
         <v>1.57</v>
       </c>
-      <c r="N3" s="73">
+      <c r="N3" s="76">
         <v>1.03</v>
       </c>
     </row>
@@ -7028,12 +7029,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="F3:F9"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A3:A7"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="K3:K9"/>
     <mergeCell ref="N3:N9"/>
@@ -7043,6 +7038,12 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="K1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Preliminary results.xlsx
+++ b/Preliminary results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\talil\OneDrive\Documents\GitHub\BN-understanding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00E939F-92B6-46FB-8CCF-124969F7AADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80C4EF29-F430-4009-AED6-B30D6B78FB2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="777" xr2:uid="{488315C1-4822-4E08-9B4D-50DDCC42159E}"/>
   </bookViews>
@@ -4343,16 +4343,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>158610</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>23042</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536908</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104105</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>478021</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>248340</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>137066</xdr:rowOff>
+      <xdr:rowOff>35736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4379,13 +4379,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>506015</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>79375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>217134</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>34648</xdr:rowOff>
@@ -4417,13 +4417,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>437030</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>144974</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>57807</xdr:rowOff>
@@ -4756,7 +4756,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
